--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd274-Cd80.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd274-Cd80.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.7735875</v>
+        <v>13.384436</v>
       </c>
       <c r="H2">
-        <v>17.547175</v>
+        <v>26.768872</v>
       </c>
       <c r="I2">
-        <v>0.171126311618442</v>
+        <v>0.1866126554212734</v>
       </c>
       <c r="J2">
-        <v>0.1219656100585016</v>
+        <v>0.1333373646714416</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="N2">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="O2">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="P2">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="Q2">
-        <v>11.49939637205625</v>
+        <v>10.332296060086</v>
       </c>
       <c r="R2">
-        <v>45.997585488225</v>
+        <v>41.32918424034401</v>
       </c>
       <c r="S2">
-        <v>0.006227036413483327</v>
+        <v>0.001579158575715227</v>
       </c>
       <c r="T2">
-        <v>0.003042226682823132</v>
+        <v>0.0007587089313999026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.7735875</v>
+        <v>13.384436</v>
       </c>
       <c r="H3">
-        <v>17.547175</v>
+        <v>26.768872</v>
       </c>
       <c r="I3">
-        <v>0.171126311618442</v>
+        <v>0.1866126554212734</v>
       </c>
       <c r="J3">
-        <v>0.1219656100585016</v>
+        <v>0.1333373646714416</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.261438</v>
       </c>
       <c r="O3">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="P3">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="Q3">
-        <v>12.46269972294167</v>
+        <v>19.01231472632267</v>
       </c>
       <c r="R3">
-        <v>74.77619833765</v>
+        <v>114.073888357936</v>
       </c>
       <c r="S3">
-        <v>0.006748674667276414</v>
+        <v>0.0029057878006662</v>
       </c>
       <c r="T3">
-        <v>0.004945610588214638</v>
+        <v>0.002094134678133706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.7735875</v>
+        <v>13.384436</v>
       </c>
       <c r="H4">
-        <v>17.547175</v>
+        <v>26.768872</v>
       </c>
       <c r="I4">
-        <v>0.171126311618442</v>
+        <v>0.1866126554212734</v>
       </c>
       <c r="J4">
-        <v>0.1219656100585016</v>
+        <v>0.1333373646714416</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="N4">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="O4">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="P4">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="Q4">
-        <v>154.7806681269542</v>
+        <v>344.425880916468</v>
       </c>
       <c r="R4">
-        <v>928.684008761725</v>
+        <v>2066.555285498808</v>
       </c>
       <c r="S4">
-        <v>0.08381525650093549</v>
+        <v>0.05264106645652823</v>
       </c>
       <c r="T4">
-        <v>0.06142207773252176</v>
+        <v>0.03793721025853403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.7735875</v>
+        <v>13.384436</v>
       </c>
       <c r="H5">
-        <v>17.547175</v>
+        <v>26.768872</v>
       </c>
       <c r="I5">
-        <v>0.171126311618442</v>
+        <v>0.1866126554212734</v>
       </c>
       <c r="J5">
-        <v>0.1219656100585016</v>
+        <v>0.1333373646714416</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="N5">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="O5">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="P5">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="Q5">
-        <v>14.50923259225</v>
+        <v>20.99241711112</v>
       </c>
       <c r="R5">
-        <v>58.036930369</v>
+        <v>83.96966844448001</v>
       </c>
       <c r="S5">
-        <v>0.007856892375950346</v>
+        <v>0.003208420985348758</v>
       </c>
       <c r="T5">
-        <v>0.003838494918454323</v>
+        <v>0.001541490319407893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.7735875</v>
+        <v>13.384436</v>
       </c>
       <c r="H6">
-        <v>17.547175</v>
+        <v>26.768872</v>
       </c>
       <c r="I6">
-        <v>0.171126311618442</v>
+        <v>0.1866126554212734</v>
       </c>
       <c r="J6">
-        <v>0.1219656100585016</v>
+        <v>0.1333373646714416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5283693333333334</v>
+        <v>54.376824</v>
       </c>
       <c r="N6">
-        <v>1.585108</v>
+        <v>163.130472</v>
       </c>
       <c r="O6">
-        <v>0.01466913098062581</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="P6">
-        <v>0.01508291239967478</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="Q6">
-        <v>4.635694578316667</v>
+        <v>727.803120711264</v>
       </c>
       <c r="R6">
-        <v>27.8141674699</v>
+        <v>4366.818724267584</v>
       </c>
       <c r="S6">
-        <v>0.002510274279362314</v>
+        <v>0.1112353471890284</v>
       </c>
       <c r="T6">
-        <v>0.001839596612285273</v>
+        <v>0.08016476562031866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.7735875</v>
+        <v>13.384436</v>
       </c>
       <c r="H7">
-        <v>17.547175</v>
+        <v>26.768872</v>
       </c>
       <c r="I7">
-        <v>0.171126311618442</v>
+        <v>0.1866126554212734</v>
       </c>
       <c r="J7">
-        <v>0.1219656100585016</v>
+        <v>0.1333373646714416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.46419533333333</v>
+        <v>7.353631333333333</v>
       </c>
       <c r="N7">
-        <v>40.39258599999999</v>
+        <v>22.060894</v>
       </c>
       <c r="O7">
-        <v>0.3738067908812474</v>
+        <v>0.08061015143923474</v>
       </c>
       <c r="P7">
-        <v>0.3843509945280258</v>
+        <v>0.0813054532040661</v>
       </c>
       <c r="Q7">
-        <v>118.1292958740916</v>
+        <v>98.42420794859467</v>
       </c>
       <c r="R7">
-        <v>708.7757752445499</v>
+        <v>590.5452476915681</v>
       </c>
       <c r="S7">
-        <v>0.06396817738143412</v>
+        <v>0.01504287441398658</v>
       </c>
       <c r="T7">
-        <v>0.04687760352420248</v>
+        <v>0.01084105486364739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.483992</v>
       </c>
       <c r="I8">
-        <v>0.02265142207290382</v>
+        <v>0.016191866398317</v>
       </c>
       <c r="J8">
-        <v>0.02421627468347122</v>
+        <v>0.01735397411651806</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="N8">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="O8">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="P8">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="Q8">
-        <v>1.522136942844</v>
+        <v>0.8965048860973333</v>
       </c>
       <c r="R8">
-        <v>9.132821657064</v>
+        <v>5.379029316584</v>
       </c>
       <c r="S8">
-        <v>0.0008242521487849982</v>
+        <v>0.0001370192424624951</v>
       </c>
       <c r="T8">
-        <v>0.000604034177874349</v>
+        <v>9.87466280733013E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.483992</v>
       </c>
       <c r="I9">
-        <v>0.02265142207290382</v>
+        <v>0.016191866398317</v>
       </c>
       <c r="J9">
-        <v>0.02421627468347122</v>
+        <v>0.01735397411651806</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.261438</v>
       </c>
       <c r="O9">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="P9">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="Q9">
         <v>1.649646211166222</v>
@@ -1013,10 +1013,10 @@
         <v>14.846815900496</v>
       </c>
       <c r="S9">
-        <v>0.0008932996736471326</v>
+        <v>0.0002521272083291028</v>
       </c>
       <c r="T9">
-        <v>0.0009819510960855577</v>
+        <v>0.0002725534518428869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.483992</v>
       </c>
       <c r="I10">
-        <v>0.02265142207290382</v>
+        <v>0.016191866398317</v>
       </c>
       <c r="J10">
-        <v>0.02421627468347122</v>
+        <v>0.01735397411651806</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="N10">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="O10">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="P10">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="Q10">
-        <v>20.48780347867822</v>
+        <v>29.88488554183199</v>
       </c>
       <c r="R10">
-        <v>184.390231308104</v>
+        <v>268.963969876488</v>
       </c>
       <c r="S10">
-        <v>0.0110943474045331</v>
+        <v>0.004567520424618879</v>
       </c>
       <c r="T10">
-        <v>0.01219535494707746</v>
+        <v>0.004937560949264147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.483992</v>
       </c>
       <c r="I11">
-        <v>0.02265142207290382</v>
+        <v>0.016191866398317</v>
       </c>
       <c r="J11">
-        <v>0.02421627468347122</v>
+        <v>0.01735397411651806</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="N11">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="O11">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="P11">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="Q11">
-        <v>1.920538976693333</v>
+        <v>1.821454244213333</v>
       </c>
       <c r="R11">
-        <v>11.52323386016</v>
+        <v>10.92872546528</v>
       </c>
       <c r="S11">
-        <v>0.00103999077468489</v>
+        <v>0.0002783858566668327</v>
       </c>
       <c r="T11">
-        <v>0.0007621332543805777</v>
+        <v>0.0002006263073354209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.483992</v>
       </c>
       <c r="I12">
-        <v>0.02265142207290382</v>
+        <v>0.016191866398317</v>
       </c>
       <c r="J12">
-        <v>0.02421627468347122</v>
+        <v>0.01735397411651806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5283693333333334</v>
+        <v>54.376824</v>
       </c>
       <c r="N12">
-        <v>1.585108</v>
+        <v>163.130472</v>
       </c>
       <c r="O12">
-        <v>0.01466913098062581</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="P12">
-        <v>0.01508291239967478</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="Q12">
-        <v>0.6136115101262222</v>
+        <v>63.14947326713599</v>
       </c>
       <c r="R12">
-        <v>5.522503591135999</v>
+        <v>568.345259404224</v>
       </c>
       <c r="S12">
-        <v>0.0003322766772848647</v>
+        <v>0.009651584863787499</v>
       </c>
       <c r="T12">
-        <v>0.0003652519496972585</v>
+        <v>0.01043351404956717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.483992</v>
       </c>
       <c r="I13">
-        <v>0.02265142207290382</v>
+        <v>0.016191866398317</v>
       </c>
       <c r="J13">
-        <v>0.02421627468347122</v>
+        <v>0.01735397411651806</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.46419533333333</v>
+        <v>7.353631333333333</v>
       </c>
       <c r="N13">
-        <v>40.39258599999999</v>
+        <v>22.060894</v>
       </c>
       <c r="O13">
-        <v>0.3738067908812474</v>
+        <v>0.08061015143923474</v>
       </c>
       <c r="P13">
-        <v>0.3843509945280258</v>
+        <v>0.0813054532040661</v>
       </c>
       <c r="Q13">
-        <v>15.63638294259022</v>
+        <v>8.539997578760888</v>
       </c>
       <c r="R13">
-        <v>140.727446483312</v>
+        <v>76.85997820884801</v>
       </c>
       <c r="S13">
-        <v>0.008467255393968828</v>
+        <v>0.00130522880245219</v>
       </c>
       <c r="T13">
-        <v>0.009307549258356017</v>
+        <v>0.001410972730435133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.719567000000001</v>
+        <v>6.900279666666667</v>
       </c>
       <c r="H14">
-        <v>23.158701</v>
+        <v>20.700839</v>
       </c>
       <c r="I14">
-        <v>0.1505679436150197</v>
+        <v>0.09620722993080069</v>
       </c>
       <c r="J14">
-        <v>0.1609697911844745</v>
+        <v>0.103112126605402</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="N14">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="O14">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="P14">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="Q14">
-        <v>10.1179090940445</v>
+        <v>5.326764042458834</v>
       </c>
       <c r="R14">
-        <v>60.70745456426701</v>
+        <v>31.96058425475301</v>
       </c>
       <c r="S14">
-        <v>0.005478947443713788</v>
+        <v>0.0008141273797752909</v>
       </c>
       <c r="T14">
-        <v>0.004015120275584119</v>
+        <v>0.0005867229458443908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.719567000000001</v>
+        <v>6.900279666666667</v>
       </c>
       <c r="H15">
-        <v>23.158701</v>
+        <v>20.700839</v>
       </c>
       <c r="I15">
-        <v>0.1505679436150197</v>
+        <v>0.09620722993080069</v>
       </c>
       <c r="J15">
-        <v>0.1609697911844745</v>
+        <v>0.103112126605402</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.261438</v>
       </c>
       <c r="O15">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="P15">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="Q15">
-        <v>10.965485385782</v>
+        <v>9.801704660720223</v>
       </c>
       <c r="R15">
-        <v>98.689368472038</v>
+        <v>88.21534194648201</v>
       </c>
       <c r="S15">
-        <v>0.005937918354976569</v>
+        <v>0.001498064503919704</v>
       </c>
       <c r="T15">
-        <v>0.006527199784289889</v>
+        <v>0.001619431136895221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.719567000000001</v>
+        <v>6.900279666666667</v>
       </c>
       <c r="H16">
-        <v>23.158701</v>
+        <v>20.700839</v>
       </c>
       <c r="I16">
-        <v>0.1505679436150197</v>
+        <v>0.09620722993080069</v>
       </c>
       <c r="J16">
-        <v>0.1609697911844745</v>
+        <v>0.103112126605402</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="N16">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="O16">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="P16">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="Q16">
-        <v>136.185994373543</v>
+        <v>177.567056449869</v>
       </c>
       <c r="R16">
-        <v>1225.673949361887</v>
+        <v>1598.103508048821</v>
       </c>
       <c r="S16">
-        <v>0.07374605749143746</v>
+        <v>0.02713884100171501</v>
       </c>
       <c r="T16">
-        <v>0.08106464618984136</v>
+        <v>0.0293375111835516</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.719567000000001</v>
+        <v>6.900279666666667</v>
       </c>
       <c r="H17">
-        <v>23.158701</v>
+        <v>20.700839</v>
       </c>
       <c r="I17">
-        <v>0.1505679436150197</v>
+        <v>0.09620722993080069</v>
       </c>
       <c r="J17">
-        <v>0.1609697911844745</v>
+        <v>0.103112126605402</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="N17">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="O17">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="P17">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="Q17">
-        <v>12.76615673058</v>
+        <v>10.82253663479333</v>
       </c>
       <c r="R17">
-        <v>76.59694038348</v>
+        <v>64.93521980876001</v>
       </c>
       <c r="S17">
-        <v>0.006912999626200559</v>
+        <v>0.001654085542887923</v>
       </c>
       <c r="T17">
-        <v>0.005066032344608351</v>
+        <v>0.0011920615452949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.719567000000001</v>
+        <v>6.900279666666667</v>
       </c>
       <c r="H18">
-        <v>23.158701</v>
+        <v>20.700839</v>
       </c>
       <c r="I18">
-        <v>0.1505679436150197</v>
+        <v>0.09620722993080069</v>
       </c>
       <c r="J18">
-        <v>0.1609697911844745</v>
+        <v>0.103112126605402</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5283693333333334</v>
+        <v>54.376824</v>
       </c>
       <c r="N18">
-        <v>1.585108</v>
+        <v>163.130472</v>
       </c>
       <c r="O18">
-        <v>0.01466913098062581</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="P18">
-        <v>0.01508291239967478</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="Q18">
-        <v>4.078782469412</v>
+        <v>375.215292985112</v>
       </c>
       <c r="R18">
-        <v>36.709042224708</v>
+        <v>3376.937636866008</v>
       </c>
       <c r="S18">
-        <v>0.002208700886372206</v>
+        <v>0.05734683212823164</v>
       </c>
       <c r="T18">
-        <v>0.00242789325942937</v>
+        <v>0.06199282160932861</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.719567000000001</v>
+        <v>6.900279666666667</v>
       </c>
       <c r="H19">
-        <v>23.158701</v>
+        <v>20.700839</v>
       </c>
       <c r="I19">
-        <v>0.1505679436150197</v>
+        <v>0.09620722993080069</v>
       </c>
       <c r="J19">
-        <v>0.1609697911844745</v>
+        <v>0.103112126605402</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.46419533333333</v>
+        <v>7.353631333333333</v>
       </c>
       <c r="N19">
-        <v>40.39258599999999</v>
+        <v>22.060894</v>
       </c>
       <c r="O19">
-        <v>0.3738067908812474</v>
+        <v>0.08061015143923474</v>
       </c>
       <c r="P19">
-        <v>0.3843509945280258</v>
+        <v>0.0813054532040661</v>
       </c>
       <c r="Q19">
-        <v>103.937757976754</v>
+        <v>50.74211276556289</v>
       </c>
       <c r="R19">
-        <v>935.4398217907859</v>
+        <v>456.6790148900661</v>
       </c>
       <c r="S19">
-        <v>0.05628331981231911</v>
+        <v>0.007755279374271121</v>
       </c>
       <c r="T19">
-        <v>0.06186889933072141</v>
+        <v>0.008383578184487248</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.165529</v>
+        <v>1.0243595</v>
       </c>
       <c r="H20">
-        <v>2.331058</v>
+        <v>2.048719</v>
       </c>
       <c r="I20">
-        <v>0.02273330936225701</v>
+        <v>0.01428214430559554</v>
       </c>
       <c r="J20">
-        <v>0.01620254605380926</v>
+        <v>0.01020479280607383</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="N20">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="O20">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="P20">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="Q20">
-        <v>1.5276396290715</v>
+        <v>0.7907681448782501</v>
       </c>
       <c r="R20">
-        <v>6.110558516286</v>
+        <v>3.163072579513</v>
       </c>
       <c r="S20">
-        <v>0.0008272319075829366</v>
+        <v>0.0001208587413799403</v>
       </c>
       <c r="T20">
-        <v>0.0004041452169257059</v>
+        <v>5.806675018763126E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.165529</v>
+        <v>1.0243595</v>
       </c>
       <c r="H21">
-        <v>2.331058</v>
+        <v>2.048719</v>
       </c>
       <c r="I21">
-        <v>0.02273330936225701</v>
+        <v>0.01428214430559554</v>
       </c>
       <c r="J21">
-        <v>0.01620254605380926</v>
+        <v>0.01020479280607383</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.261438</v>
       </c>
       <c r="O21">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="P21">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="Q21">
-        <v>1.655609856900667</v>
+        <v>1.455081499653667</v>
       </c>
       <c r="R21">
-        <v>9.933659141403998</v>
+        <v>8.730488997922</v>
       </c>
       <c r="S21">
-        <v>0.0008965290465588918</v>
+        <v>0.0002223904943470557</v>
       </c>
       <c r="T21">
-        <v>0.0006570006355178219</v>
+        <v>0.0001602717329161799</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.165529</v>
+        <v>1.0243595</v>
       </c>
       <c r="H22">
-        <v>2.331058</v>
+        <v>2.048719</v>
       </c>
       <c r="I22">
-        <v>0.02273330936225701</v>
+        <v>0.01428214430559554</v>
       </c>
       <c r="J22">
-        <v>0.01620254605380926</v>
+        <v>0.01020479280607383</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="N22">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="O22">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="P22">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="Q22">
-        <v>20.56186905770766</v>
+        <v>26.3601636380235</v>
       </c>
       <c r="R22">
-        <v>123.371214346246</v>
+        <v>158.160981828141</v>
       </c>
       <c r="S22">
-        <v>0.01113445464518121</v>
+        <v>0.004028812010821825</v>
       </c>
       <c r="T22">
-        <v>0.00815962829771839</v>
+        <v>0.002903472490871247</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.165529</v>
+        <v>1.0243595</v>
       </c>
       <c r="H23">
-        <v>2.331058</v>
+        <v>2.048719</v>
       </c>
       <c r="I23">
-        <v>0.02273330936225701</v>
+        <v>0.01428214430559554</v>
       </c>
       <c r="J23">
-        <v>0.01620254605380926</v>
+        <v>0.01020479280607383</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="N23">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="O23">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="P23">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="Q23">
-        <v>1.92748192846</v>
+        <v>1.60662592699</v>
       </c>
       <c r="R23">
-        <v>7.709927713839999</v>
+        <v>6.42650370796</v>
       </c>
       <c r="S23">
-        <v>0.001043750451460025</v>
+        <v>0.0002455521111492006</v>
       </c>
       <c r="T23">
-        <v>0.0005099256311983151</v>
+        <v>0.0001179758529118081</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.165529</v>
+        <v>1.0243595</v>
       </c>
       <c r="H24">
-        <v>2.331058</v>
+        <v>2.048719</v>
       </c>
       <c r="I24">
-        <v>0.02273330936225701</v>
+        <v>0.01428214430559554</v>
       </c>
       <c r="J24">
-        <v>0.01620254605380926</v>
+        <v>0.01020479280607383</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5283693333333334</v>
+        <v>54.376824</v>
       </c>
       <c r="N24">
-        <v>1.585108</v>
+        <v>163.130472</v>
       </c>
       <c r="O24">
-        <v>0.01466913098062581</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="P24">
-        <v>0.01508291239967478</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="Q24">
-        <v>0.6158297807106666</v>
+        <v>55.70141624422801</v>
       </c>
       <c r="R24">
-        <v>3.694978684263999</v>
+        <v>334.208497465368</v>
       </c>
       <c r="S24">
-        <v>0.0003334778926580352</v>
+        <v>0.008513245132546459</v>
       </c>
       <c r="T24">
-        <v>0.0002443815827813014</v>
+        <v>0.006135300675235536</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.165529</v>
+        <v>1.0243595</v>
       </c>
       <c r="H25">
-        <v>2.331058</v>
+        <v>2.048719</v>
       </c>
       <c r="I25">
-        <v>0.02273330936225701</v>
+        <v>0.01428214430559554</v>
       </c>
       <c r="J25">
-        <v>0.01620254605380926</v>
+        <v>0.01020479280607383</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.46419533333333</v>
+        <v>7.353631333333333</v>
       </c>
       <c r="N25">
-        <v>40.39258599999999</v>
+        <v>22.060894</v>
       </c>
       <c r="O25">
-        <v>0.3738067908812474</v>
+        <v>0.08061015143923474</v>
       </c>
       <c r="P25">
-        <v>0.3843509945280258</v>
+        <v>0.0813054532040661</v>
       </c>
       <c r="Q25">
-        <v>15.69291012266466</v>
+        <v>7.532762115797667</v>
       </c>
       <c r="R25">
-        <v>94.15746073598797</v>
+        <v>45.19657269478601</v>
       </c>
       <c r="S25">
-        <v>0.008497865418815909</v>
+        <v>0.001151285815351061</v>
       </c>
       <c r="T25">
-        <v>0.00622746468966773</v>
+        <v>0.0008297053039514259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.441887</v>
+        <v>42.67983899999999</v>
       </c>
       <c r="H26">
-        <v>49.325661</v>
+        <v>128.039517</v>
       </c>
       <c r="I26">
-        <v>0.3206942973278845</v>
+        <v>0.5950641542716052</v>
       </c>
       <c r="J26">
-        <v>0.3428491671966479</v>
+        <v>0.6377725505424449</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="N26">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="O26">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="P26">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="Q26">
-        <v>21.5501099997645</v>
+        <v>32.9472778938765</v>
       </c>
       <c r="R26">
-        <v>129.300659998587</v>
+        <v>197.683667363259</v>
       </c>
       <c r="S26">
-        <v>0.01166959685024833</v>
+        <v>0.005035567712154265</v>
       </c>
       <c r="T26">
-        <v>0.008551794920953848</v>
+        <v>0.003629018253740002</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.441887</v>
+        <v>42.67983899999999</v>
       </c>
       <c r="H27">
-        <v>49.325661</v>
+        <v>128.039517</v>
       </c>
       <c r="I27">
-        <v>0.3206942973278845</v>
+        <v>0.5950641542716052</v>
       </c>
       <c r="J27">
-        <v>0.3428491671966479</v>
+        <v>0.6377725505424449</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.261438</v>
       </c>
       <c r="O27">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="P27">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="Q27">
-        <v>23.355360684502</v>
+        <v>60.625829249494</v>
       </c>
       <c r="R27">
-        <v>210.198246160518</v>
+        <v>545.6324632454459</v>
       </c>
       <c r="S27">
-        <v>0.01264715787915962</v>
+        <v>0.009265878330666864</v>
       </c>
       <c r="T27">
-        <v>0.01390226696390079</v>
+        <v>0.01001655926036742</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.441887</v>
+        <v>42.67983899999999</v>
       </c>
       <c r="H28">
-        <v>49.325661</v>
+        <v>128.039517</v>
       </c>
       <c r="I28">
-        <v>0.3206942973278845</v>
+        <v>0.5950641542716052</v>
       </c>
       <c r="J28">
-        <v>0.3428491671966479</v>
+        <v>0.6377725505424449</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="N28">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="O28">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="P28">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="Q28">
-        <v>290.0622185768229</v>
+        <v>1098.293655776607</v>
       </c>
       <c r="R28">
-        <v>2610.559967191407</v>
+        <v>9884.642901989462</v>
       </c>
       <c r="S28">
-        <v>0.157071548698226</v>
+        <v>0.1678600608313211</v>
       </c>
       <c r="T28">
-        <v>0.1726593929877611</v>
+        <v>0.1814593486729714</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.441887</v>
+        <v>42.67983899999999</v>
       </c>
       <c r="H29">
-        <v>49.325661</v>
+        <v>128.039517</v>
       </c>
       <c r="I29">
-        <v>0.3206942973278845</v>
+        <v>0.5950641542716052</v>
       </c>
       <c r="J29">
-        <v>0.3428491671966479</v>
+        <v>0.6377725505424449</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="N29">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="O29">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="P29">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="Q29">
-        <v>27.19060620738</v>
+        <v>66.93991308437998</v>
       </c>
       <c r="R29">
-        <v>163.14363724428</v>
+        <v>401.6394785062799</v>
       </c>
       <c r="S29">
-        <v>0.01472398110995498</v>
+        <v>0.01023090484342458</v>
       </c>
       <c r="T29">
-        <v>0.01079012998376665</v>
+        <v>0.007373178666518421</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.441887</v>
+        <v>42.67983899999999</v>
       </c>
       <c r="H30">
-        <v>49.325661</v>
+        <v>128.039517</v>
       </c>
       <c r="I30">
-        <v>0.3206942973278845</v>
+        <v>0.5950641542716052</v>
       </c>
       <c r="J30">
-        <v>0.3428491671966479</v>
+        <v>0.6377725505424449</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5283693333333334</v>
+        <v>54.376824</v>
       </c>
       <c r="N30">
-        <v>1.585108</v>
+        <v>163.130472</v>
       </c>
       <c r="O30">
-        <v>0.01466913098062581</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="P30">
-        <v>0.01508291239967478</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="Q30">
-        <v>8.687388872931999</v>
+        <v>2320.794093651336</v>
       </c>
       <c r="R30">
-        <v>78.186499856388</v>
+        <v>20887.14684286202</v>
       </c>
       <c r="S30">
-        <v>0.004704306652242495</v>
+        <v>0.3547035309621441</v>
       </c>
       <c r="T30">
-        <v>0.005171163955128492</v>
+        <v>0.3834400594258811</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>16.441887</v>
+        <v>42.67983899999999</v>
       </c>
       <c r="H31">
-        <v>49.325661</v>
+        <v>128.039517</v>
       </c>
       <c r="I31">
-        <v>0.3206942973278845</v>
+        <v>0.5950641542716052</v>
       </c>
       <c r="J31">
-        <v>0.3428491671966479</v>
+        <v>0.6377725505424449</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.46419533333333</v>
+        <v>7.353631333333333</v>
       </c>
       <c r="N31">
-        <v>40.39258599999999</v>
+        <v>22.060894</v>
       </c>
       <c r="O31">
-        <v>0.3738067908812474</v>
+        <v>0.08061015143923474</v>
       </c>
       <c r="P31">
-        <v>0.3843509945280258</v>
+        <v>0.0813054532040661</v>
       </c>
       <c r="Q31">
-        <v>221.3767782165939</v>
+        <v>313.851801372022</v>
       </c>
       <c r="R31">
-        <v>1992.391003949346</v>
+        <v>2824.666212348198</v>
       </c>
       <c r="S31">
-        <v>0.1198777061380531</v>
+        <v>0.04796821159189424</v>
       </c>
       <c r="T31">
-        <v>0.131774418385137</v>
+        <v>0.05185438626296663</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16.007757</v>
+        <v>6.572843666666667</v>
       </c>
       <c r="H32">
-        <v>48.02327100000001</v>
+        <v>19.718531</v>
       </c>
       <c r="I32">
-        <v>0.3122267160034931</v>
+        <v>0.09164194967240803</v>
       </c>
       <c r="J32">
-        <v>0.3337966108230954</v>
+        <v>0.0982191912581197</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="N32">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="O32">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="P32">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="Q32">
-        <v>20.9811029719095</v>
+        <v>5.073995401872834</v>
       </c>
       <c r="R32">
-        <v>125.886617831457</v>
+        <v>30.44397241123701</v>
       </c>
       <c r="S32">
-        <v>0.01136147393950224</v>
+        <v>0.0007754949437579726</v>
       </c>
       <c r="T32">
-        <v>0.008325994151915983</v>
+        <v>0.0005588814345178928</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>16.007757</v>
+        <v>6.572843666666667</v>
       </c>
       <c r="H33">
-        <v>48.02327100000001</v>
+        <v>19.718531</v>
       </c>
       <c r="I33">
-        <v>0.3122267160034931</v>
+        <v>0.09164194967240803</v>
       </c>
       <c r="J33">
-        <v>0.3337966108230954</v>
+        <v>0.0982191912581197</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.261438</v>
       </c>
       <c r="O33">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="P33">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="Q33">
-        <v>22.738687991522</v>
+        <v>9.336588589730891</v>
       </c>
       <c r="R33">
-        <v>204.6481919236981</v>
+        <v>84.02929730757801</v>
       </c>
       <c r="S33">
-        <v>0.01231322354120441</v>
+        <v>0.001426977494030088</v>
       </c>
       <c r="T33">
-        <v>0.01353519284661497</v>
+        <v>0.001542584968427302</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>16.007757</v>
+        <v>6.572843666666667</v>
       </c>
       <c r="H34">
-        <v>48.02327100000001</v>
+        <v>19.718531</v>
       </c>
       <c r="I34">
-        <v>0.3122267160034931</v>
+        <v>0.09164194967240803</v>
       </c>
       <c r="J34">
-        <v>0.3337966108230954</v>
+        <v>0.0982191912581197</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="N34">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="O34">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="P34">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="Q34">
-        <v>282.403443708053</v>
+        <v>169.141043374401</v>
       </c>
       <c r="R34">
-        <v>2541.630993372477</v>
+        <v>1522.269390369609</v>
       </c>
       <c r="S34">
-        <v>0.1529242466618867</v>
+        <v>0.02585103326470915</v>
       </c>
       <c r="T34">
-        <v>0.168100511012853</v>
+        <v>0.02794537089707856</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.007757</v>
+        <v>6.572843666666667</v>
       </c>
       <c r="H35">
-        <v>48.02327100000001</v>
+        <v>19.718531</v>
       </c>
       <c r="I35">
-        <v>0.3122267160034931</v>
+        <v>0.09164194967240803</v>
       </c>
       <c r="J35">
-        <v>0.3337966108230954</v>
+        <v>0.0982191912581197</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="N35">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="O35">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="P35">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="Q35">
-        <v>26.47266806118</v>
+        <v>10.30897946367333</v>
       </c>
       <c r="R35">
-        <v>158.83600836708</v>
+        <v>61.85387678204</v>
       </c>
       <c r="S35">
-        <v>0.01433521053153751</v>
+        <v>0.001575594933813424</v>
       </c>
       <c r="T35">
-        <v>0.0105052284314173</v>
+        <v>0.001135495162046591</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>16.007757</v>
+        <v>6.572843666666667</v>
       </c>
       <c r="H36">
-        <v>48.02327100000001</v>
+        <v>19.718531</v>
       </c>
       <c r="I36">
-        <v>0.3122267160034931</v>
+        <v>0.09164194967240803</v>
       </c>
       <c r="J36">
-        <v>0.3337966108230954</v>
+        <v>0.0982191912581197</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5283693333333334</v>
+        <v>54.376824</v>
       </c>
       <c r="N36">
-        <v>1.585108</v>
+        <v>163.130472</v>
       </c>
       <c r="O36">
-        <v>0.01466913098062581</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="P36">
-        <v>0.01508291239967478</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="Q36">
-        <v>8.458007894252001</v>
+        <v>357.410363241848</v>
       </c>
       <c r="R36">
-        <v>76.12207104826801</v>
+        <v>3216.693269176632</v>
       </c>
       <c r="S36">
-        <v>0.004580094592705897</v>
+        <v>0.05462557759481786</v>
       </c>
       <c r="T36">
-        <v>0.005034625040353083</v>
+        <v>0.05905110293747109</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>16.007757</v>
+        <v>6.572843666666667</v>
       </c>
       <c r="H37">
-        <v>48.02327100000001</v>
+        <v>19.718531</v>
       </c>
       <c r="I37">
-        <v>0.3122267160034931</v>
+        <v>0.09164194967240803</v>
       </c>
       <c r="J37">
-        <v>0.3337966108230954</v>
+        <v>0.0982191912581197</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.46419533333333</v>
+        <v>7.353631333333333</v>
       </c>
       <c r="N37">
-        <v>40.39258599999999</v>
+        <v>22.060894</v>
       </c>
       <c r="O37">
-        <v>0.3738067908812474</v>
+        <v>0.08061015143923474</v>
       </c>
       <c r="P37">
-        <v>0.3843509945280258</v>
+        <v>0.0813054532040661</v>
       </c>
       <c r="Q37">
-        <v>215.531567096534</v>
+        <v>48.33426913630156</v>
       </c>
       <c r="R37">
-        <v>1939.784103868806</v>
+        <v>435.0084222267141</v>
       </c>
       <c r="S37">
-        <v>0.1167124667366564</v>
+        <v>0.00738727144127954</v>
       </c>
       <c r="T37">
-        <v>0.1282950593399411</v>
+        <v>0.00798575585857827</v>
       </c>
     </row>
   </sheetData>
